--- a/7Rmart/src/test/resources/testdata/Testdata.xlsx
+++ b/7Rmart/src/test/resources/testdata/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roshni\git\repository\7Rmart\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC243594-EE6C-4642-B989-F1AE19E29B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E23C0A8-D85A-4080-BD4A-60C2D5ED9939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -50,13 +50,19 @@
   </si>
   <si>
     <t>https://groceryapp.uniqassosiates.com/admin/list-news</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>Test news</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +77,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -94,9 +106,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -421,22 +434,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA470BE1-369A-4979-B76A-8F25688E6528}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -444,5 +463,6 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{C1A2F5D2-9DD4-41C1-A91A-C01352D2F5EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
--- a/7Rmart/src/test/resources/testdata/Testdata.xlsx
+++ b/7Rmart/src/test/resources/testdata/Testdata.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roshni\git\repository\7Rmart\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E23C0A8-D85A-4080-BD4A-60C2D5ED9939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0151340-B35E-4ECD-B5C2-C28889F60F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7270" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ManageNewsPage" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageCategoryPage" sheetId="3" r:id="rId3"/>
+    <sheet name="AdminPage" sheetId="4" r:id="rId4"/>
+    <sheet name="SubCategoryPage" sheetId="5" r:id="rId5"/>
+    <sheet name="ManageFooterPage" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>UserName</t>
   </si>
@@ -56,13 +60,76 @@
   </si>
   <si>
     <t>Test news</t>
+  </si>
+  <si>
+    <t>newcatergory</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-category</t>
+  </si>
+  <si>
+    <t>testnewcategory</t>
+  </si>
+  <si>
+    <t>managecategoryurl</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>C:\Users\Roshni\Downloads\Selenium.jpg</t>
+  </si>
+  <si>
+    <t>adminurl</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-admin</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>adminusername</t>
+  </si>
+  <si>
+    <t>adminpassword</t>
+  </si>
+  <si>
+    <t>usertype</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>subcategoryurl</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-sub-category</t>
+  </si>
+  <si>
+    <t>managefooterurl</t>
+  </si>
+  <si>
+    <t>https://groceryapp.uniqassosiates.com/admin/list-footertext</t>
+  </si>
+  <si>
+    <t>editaddress</t>
+  </si>
+  <si>
+    <t>Test ABC</t>
+  </si>
+  <si>
+    <t>subcategorytext</t>
+  </si>
+  <si>
+    <t>Testsubcategory</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +148,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -106,10 +179,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -394,7 +468,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,9 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA470BE1-369A-4979-B76A-8F25688E6528}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -465,4 +537,162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679D50D3-4699-4B2C-93B1-D41259BFB243}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E2208AEB-7CEE-43AE-BBA9-CBEDB1EECB12}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAFD98F-F4D6-4251-9F47-D248C859001F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9CB3D8B6-FC22-4650-B77B-80E9562918D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96D875C-AE5D-4E0F-80B3-2601695A3470}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{91213207-6BCB-4595-B439-E4376F9F1DB3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC6B8FA-A928-4225-AE26-357CCA1D4A11}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4BC1A1DF-AF17-4ECB-B642-EF9DDCB6998D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>